--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.746283636954497</v>
+        <v>-1.478268366078623</v>
       </c>
       <c r="D2">
-        <v>0.0809445546581089</v>
+        <v>0.1535113371196473</v>
       </c>
       <c r="E2">
         <v>0.6711900258623178</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.007999891579551414</v>
+        <v>0.009527905428311093</v>
       </c>
       <c r="D3">
-        <v>0.9936180284783247</v>
+        <v>0.9924838202041442</v>
       </c>
       <c r="E3">
         <v>0.6711900258623178</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7616110772125532</v>
+        <v>-0.8109820795995006</v>
       </c>
       <c r="D4">
-        <v>0.4463991224468593</v>
+        <v>0.4260629262353477</v>
       </c>
       <c r="E4">
         <v>0.6711900258623178</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.23411305331073</v>
+        <v>-1.297667969103662</v>
       </c>
       <c r="D5">
-        <v>0.217333489261101</v>
+        <v>0.2078436233020673</v>
       </c>
       <c r="E5">
         <v>0.6711900258623178</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.688442133189845</v>
+        <v>1.277244731243567</v>
       </c>
       <c r="D6">
-        <v>0.09151208589161386</v>
+        <v>0.2148315205972382</v>
       </c>
       <c r="E6">
         <v>0.7222279052831257</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9907790733467247</v>
+        <v>0.8389077716925786</v>
       </c>
       <c r="D7">
-        <v>0.3219362297686337</v>
+        <v>0.4105442349659554</v>
       </c>
       <c r="E7">
         <v>0.7222279052831257</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.4613911294784958</v>
+        <v>0.4509866006628294</v>
       </c>
       <c r="D8">
-        <v>0.644577780172328</v>
+        <v>0.6564129599905915</v>
       </c>
       <c r="E8">
         <v>0.7222279052831257</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.873918088534184</v>
+        <v>-0.9237053280916568</v>
       </c>
       <c r="D9">
-        <v>0.3822878407018986</v>
+        <v>0.3656607189909526</v>
       </c>
       <c r="E9">
         <v>0.6709855579037426</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.267654540440224</v>
+        <v>-1.075413707262149</v>
       </c>
       <c r="D10">
-        <v>0.2050971175409579</v>
+        <v>0.2938426642926275</v>
       </c>
       <c r="E10">
         <v>0.6709855579037426</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5399483960087935</v>
+        <v>-0.4536356766284825</v>
       </c>
       <c r="D11">
-        <v>0.5893042255643426</v>
+        <v>0.6545342010838859</v>
       </c>
       <c r="E11">
         <v>0.6922595012779995</v>
